--- a/0716/output_batch_size_1_query_points_10_0716.xlsx
+++ b/0716/output_batch_size_1_query_points_10_0716.xlsx
@@ -462,14 +462,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>(0.08401956774923043, 735, 1265, 0.6325)</t>
+          <t>(0.7051911635837728, 552, 1448, 0.724)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>(0.07965768839937692, 778, 1222, 0.611)</t>
+          <t>(0.7057813043829344, 527, 1473, 0.7365)</t>
         </is>
       </c>
     </row>
@@ -483,14 +483,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>(52.146483633690124, 336, 1664, 0.832)</t>
+          <t>(46.927442357553915, 435, 1565, 0.7825)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(53.150575935713135, 340, 1660, 0.83)</t>
+          <t>(43.73838631101932, 490, 1510, 0.755)</t>
         </is>
       </c>
     </row>
@@ -504,14 +504,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(5.927110332759898, 798, 1202, 0.601)</t>
+          <t>(13.758976777218468, 749, 1251, 0.6255)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>(5.558658008429781, 811, 1189, 0.5945)</t>
+          <t>(13.47105353450627, 766, 1234, 0.617)</t>
         </is>
       </c>
     </row>
